--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1998.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1998.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162614905579223</v>
+        <v>0.7850438356399536</v>
       </c>
       <c r="B1">
-        <v>2.210365084399303</v>
+        <v>2.729622364044189</v>
       </c>
       <c r="C1">
-        <v>8.111631903865986</v>
+        <v>7.698080539703369</v>
       </c>
       <c r="D1">
-        <v>2.581517544734072</v>
+        <v>2.270837306976318</v>
       </c>
       <c r="E1">
-        <v>1.225391853847485</v>
+        <v>1.495089292526245</v>
       </c>
     </row>
   </sheetData>
